--- a/kensho/expantion_customize.xlsx
+++ b/kensho/expantion_customize.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BF$16:$BJ$451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BL$16:$BP$231</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7366" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7812" uniqueCount="46">
   <si>
     <t>SELL</t>
   </si>
@@ -331,6 +331,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリンジャーバンド2以下のロジックをはずした</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeのロジックをはずした</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -381,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,11 +427,23 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -692,10 +719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ501"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BR501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BF20" sqref="BF20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -740,13 +768,16 @@
     <col min="51" max="51" width="20.33203125" hidden="1" customWidth="1"/>
     <col min="52" max="52" width="19.5546875" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="17.77734375" hidden="1" customWidth="1"/>
-    <col min="54" max="56" width="0" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="17.5546875" customWidth="1"/>
-    <col min="59" max="59" width="21.44140625" customWidth="1"/>
-    <col min="60" max="60" width="20.109375" customWidth="1"/>
+    <col min="54" max="57" width="0" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="17.5546875" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="21.44140625" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="20.109375" hidden="1" customWidth="1"/>
+    <col min="61" max="63" width="0" hidden="1" customWidth="1"/>
+    <col min="64" max="65" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -772,8 +803,14 @@
       <c r="BF1" t="s">
         <v>41</v>
       </c>
+      <c r="BL1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" ht="39.6" x14ac:dyDescent="0.2">
       <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
@@ -796,8 +833,17 @@
       <c r="BF2" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="BL2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR2" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="I3" s="5" t="s">
         <v>36</v>
       </c>
@@ -821,7 +867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="I4" s="5"/>
       <c r="R4" s="5"/>
       <c r="AC4" s="5"/>
@@ -837,7 +883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -916,8 +962,11 @@
       <c r="BF5" t="s">
         <v>12</v>
       </c>
+      <c r="BL5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1000,12 +1049,15 @@
       <c r="BF6" t="s">
         <v>14</v>
       </c>
+      <c r="BL6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AC7"/>
       <c r="AL7" s="6"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1078,8 +1130,17 @@
       <c r="BH8">
         <v>-900</v>
       </c>
+      <c r="BL8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM8">
+        <v>85</v>
+      </c>
+      <c r="BN8">
+        <v>-1800</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1152,8 +1213,17 @@
       <c r="BH9">
         <v>1000</v>
       </c>
+      <c r="BL9" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM9">
+        <v>44</v>
+      </c>
+      <c r="BN9">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1220,8 +1290,17 @@
       <c r="BF10" t="s">
         <v>18</v>
       </c>
+      <c r="BL10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BM10">
+        <v>51</v>
+      </c>
+      <c r="BN10">
+        <v>-1000</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1288,8 +1367,17 @@
       <c r="BF11" t="s">
         <v>19</v>
       </c>
+      <c r="BL11" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM11">
+        <v>35</v>
+      </c>
+      <c r="BN11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
         <v>29</v>
       </c>
@@ -1348,7 +1436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
         <v>30</v>
       </c>
@@ -1407,15 +1495,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1566,8 +1654,23 @@
       <c r="BJ16" t="s">
         <v>6</v>
       </c>
+      <c r="BL16" t="s">
+        <v>7</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>5</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42797</v>
       </c>
@@ -1718,8 +1821,23 @@
       <c r="BJ17">
         <v>0.64149999999999996</v>
       </c>
+      <c r="BL17" s="9">
+        <v>42796.152777777781</v>
+      </c>
+      <c r="BM17" s="9">
+        <v>42796.205439814818</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP17" s="3">
+        <v>-0.20200000000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42802</v>
       </c>
@@ -1877,8 +1995,23 @@
       <c r="BJ18" s="3">
         <v>-0.03</v>
       </c>
+      <c r="BL18" s="9">
+        <v>42797.774317129632</v>
+      </c>
+      <c r="BM18" s="9">
+        <v>42797.842141203706</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP18" s="3">
+        <v>-0.20399999999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42803</v>
       </c>
@@ -2036,8 +2169,23 @@
       <c r="BJ19" s="3">
         <v>-0.20399999999999999</v>
       </c>
+      <c r="BL19" s="9">
+        <v>42802.69803240741</v>
+      </c>
+      <c r="BM19" s="9">
+        <v>42802.714814814812</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP19" s="3">
+        <v>-0.216</v>
+      </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42803</v>
       </c>
@@ -2195,8 +2343,23 @@
       <c r="BJ20" s="3">
         <v>-5.5000000000100004E-3</v>
       </c>
+      <c r="BL20" s="9">
+        <v>42803.729178240741</v>
+      </c>
+      <c r="BM20" s="9">
+        <v>42803.853715277779</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP20" s="3">
+        <v>-0.20050000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42804</v>
       </c>
@@ -2347,8 +2510,23 @@
       <c r="BJ21" s="3">
         <v>-0.23400000000000001</v>
       </c>
+      <c r="BL21" s="9">
+        <v>42803.982662037037</v>
+      </c>
+      <c r="BM21" s="9">
+        <v>42804.00986111111</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP21" s="3">
+        <v>-0.21199999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42807</v>
       </c>
@@ -2506,8 +2684,23 @@
       <c r="BJ22">
         <v>0.1285</v>
       </c>
+      <c r="BL22" s="9">
+        <v>42804.131979166668</v>
+      </c>
+      <c r="BM22" s="9">
+        <v>42805.000034722223</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP22">
+        <v>7.0999999999999994E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42809</v>
       </c>
@@ -2658,8 +2851,23 @@
       <c r="BJ23" s="3">
         <v>-0.20100000000000001</v>
       </c>
+      <c r="BL23" s="9">
+        <v>42807.673611111109</v>
+      </c>
+      <c r="BM23" s="9">
+        <v>42807.721296296295</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP23" s="3">
+        <v>-0.23400000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42809</v>
       </c>
@@ -2817,8 +3025,23 @@
       <c r="BJ24" s="3">
         <v>-0.20399999999999999</v>
       </c>
+      <c r="BL24" s="9">
+        <v>42809.635428240741</v>
+      </c>
+      <c r="BM24" s="9">
+        <v>42809.747002314813</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP24" s="3">
+        <v>-0.20100000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42810</v>
       </c>
@@ -2969,8 +3192,23 @@
       <c r="BJ25">
         <v>0.59650000000000003</v>
       </c>
+      <c r="BL25" s="9">
+        <v>42809.774328703701</v>
+      </c>
+      <c r="BM25" s="9">
+        <v>42809.897129629629</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP25" s="3">
+        <v>-0.20399999999999999</v>
+      </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42814</v>
       </c>
@@ -3128,8 +3366,23 @@
       <c r="BJ26" s="3">
         <v>-0.2205</v>
       </c>
+      <c r="BL26" s="9">
+        <v>42810.878506944442</v>
+      </c>
+      <c r="BM26" s="9">
+        <v>42811.850729166668</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP26">
+        <v>4.0500000000000001E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42815</v>
       </c>
@@ -3287,8 +3540,23 @@
       <c r="BJ27" s="3">
         <v>-0.20349999999999999</v>
       </c>
+      <c r="BL27" s="9">
+        <v>42814.882060185184</v>
+      </c>
+      <c r="BM27" s="9">
+        <v>42815.520833333336</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP27">
+        <v>0.2175</v>
+      </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42817</v>
       </c>
@@ -3439,8 +3707,23 @@
       <c r="BJ28" s="3">
         <v>-0.22950000000000001</v>
       </c>
+      <c r="BL28" s="9">
+        <v>42815.770949074074</v>
+      </c>
+      <c r="BM28" s="9">
+        <v>42815.972916666666</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP28" s="3">
+        <v>-0.26900000000000002</v>
+      </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42817</v>
       </c>
@@ -3598,8 +3881,23 @@
       <c r="BJ29">
         <v>0.46550000000000002</v>
       </c>
+      <c r="BL29" s="9">
+        <v>42816.927094907405</v>
+      </c>
+      <c r="BM29" s="9">
+        <v>42817.011122685188</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP29" s="3">
+        <v>-0.20649999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42824</v>
       </c>
@@ -3757,8 +4055,23 @@
       <c r="BJ30">
         <v>0.26450000000000001</v>
       </c>
+      <c r="BL30" s="9">
+        <v>42817.013912037037</v>
+      </c>
+      <c r="BM30" s="9">
+        <v>42817.021898148145</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP30" s="3">
+        <v>-0.22450000000000001</v>
+      </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42828</v>
       </c>
@@ -3916,8 +4229,23 @@
       <c r="BJ31" s="3">
         <v>-0.26900000000000002</v>
       </c>
+      <c r="BL31" s="9">
+        <v>42817.774340277778</v>
+      </c>
+      <c r="BM31" s="9">
+        <v>42817.781168981484</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP31" s="3">
+        <v>-0.20150000000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42830</v>
       </c>
@@ -4068,8 +4396,23 @@
       <c r="BJ32" s="3">
         <v>-0.20200000000000001</v>
       </c>
+      <c r="BL32" s="9">
+        <v>42824.767476851855</v>
+      </c>
+      <c r="BM32" s="9">
+        <v>42825.600694444445</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP32">
+        <v>1.6205000000000001</v>
+      </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42830</v>
       </c>
@@ -4227,8 +4570,23 @@
       <c r="BJ33">
         <v>1.3680000000000001</v>
       </c>
+      <c r="BL33" s="9">
+        <v>42828.680671296293</v>
+      </c>
+      <c r="BM33" s="9">
+        <v>42829.76053240741</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP33">
+        <v>2.0194999999999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42832</v>
       </c>
@@ -4386,8 +4744,23 @@
       <c r="BJ34" s="3">
         <v>-0.22450000000000001</v>
       </c>
+      <c r="BL34" s="9">
+        <v>42830.649421296293</v>
+      </c>
+      <c r="BM34" s="9">
+        <v>42830.664699074077</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP34" s="3">
+        <v>-0.20250000000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42835</v>
       </c>
@@ -4538,8 +4911,23 @@
       <c r="BJ35" s="3">
         <v>-0.27050000000000002</v>
       </c>
+      <c r="BL35" s="9">
+        <v>42830.73265046296</v>
+      </c>
+      <c r="BM35" s="9">
+        <v>42831.163206018522</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP35">
+        <v>0.27900000000000003</v>
+      </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42836</v>
       </c>
@@ -4697,8 +5085,23 @@
       <c r="BJ36">
         <v>0.65300000000000002</v>
       </c>
+      <c r="BL36" s="9">
+        <v>42832.899317129632</v>
+      </c>
+      <c r="BM36" s="9">
+        <v>42832.926400462966</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP36" s="3">
+        <v>-0.22</v>
+      </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42836</v>
       </c>
@@ -4856,8 +5259,23 @@
       <c r="BJ37" s="3">
         <v>-0.20150000000000001</v>
       </c>
+      <c r="BL37" s="9">
+        <v>42835.951504629629</v>
+      </c>
+      <c r="BM37" s="9">
+        <v>42835.966550925928</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP37" s="3">
+        <v>-0.20699999999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42839</v>
       </c>
@@ -5015,8 +5433,23 @@
       <c r="BJ38" s="3">
         <v>-0.21099999999999999</v>
       </c>
+      <c r="BL38" s="9">
+        <v>42836.67015046296</v>
+      </c>
+      <c r="BM38" s="9">
+        <v>42836.729178240741</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP38" s="3">
+        <v>-0.2185</v>
+      </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42843</v>
       </c>
@@ -5174,8 +5607,23 @@
       <c r="BJ39">
         <v>1.6E-2</v>
       </c>
+      <c r="BL39" s="9">
+        <v>42836.916689814818</v>
+      </c>
+      <c r="BM39" s="9">
+        <v>42837.680578703701</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP39">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42843</v>
       </c>
@@ -5333,8 +5781,23 @@
       <c r="BJ40" s="3">
         <v>-0.2175</v>
       </c>
+      <c r="BL40" s="9">
+        <v>42839.833356481482</v>
+      </c>
+      <c r="BM40" s="9">
+        <v>42840.208356481482</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP40">
+        <v>6.8000000000000005E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42844</v>
       </c>
@@ -5492,8 +5955,23 @@
       <c r="BJ41" s="3">
         <v>-0.20100000000000001</v>
       </c>
+      <c r="BL41" s="9">
+        <v>42843.677083333336</v>
+      </c>
+      <c r="BM41" s="9">
+        <v>42843.69363425926</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP41" s="3">
+        <v>-0.20549999999999999</v>
+      </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42852</v>
       </c>
@@ -5644,8 +6122,23 @@
       <c r="BJ42" s="3">
         <v>-0.2145</v>
       </c>
+      <c r="BL42" s="9">
+        <v>42843.753483796296</v>
+      </c>
+      <c r="BM42" s="9">
+        <v>42843.795729166668</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP42" s="3">
+        <v>-0.22</v>
+      </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42856</v>
       </c>
@@ -5803,8 +6296,23 @@
       <c r="BJ43">
         <v>8.8999999999999996E-2</v>
       </c>
+      <c r="BL43" s="9">
+        <v>42843.798634259256</v>
+      </c>
+      <c r="BM43" s="9">
+        <v>42844.031273148146</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP43">
+        <v>1.6005</v>
+      </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42858</v>
       </c>
@@ -5962,8 +6470,23 @@
       <c r="BJ44" s="3">
         <v>-0.20849999999999999</v>
       </c>
+      <c r="BL44" s="9">
+        <v>42844.114606481482</v>
+      </c>
+      <c r="BM44" s="9">
+        <v>42845.000023148146</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP44">
+        <v>0.34100000000000003</v>
+      </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42864</v>
       </c>
@@ -6121,8 +6644,23 @@
       <c r="BJ45" s="3">
         <v>-0.20499999999999999</v>
       </c>
+      <c r="BL45" s="9">
+        <v>42851.000115740739</v>
+      </c>
+      <c r="BM45" s="9">
+        <v>42851.729166666664</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP45">
+        <v>0.24249999999999999</v>
+      </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42866</v>
       </c>
@@ -6280,8 +6818,23 @@
       <c r="BJ46" s="3">
         <v>-0.20649999999999999</v>
       </c>
+      <c r="BL46" s="9">
+        <v>42852.649421296293</v>
+      </c>
+      <c r="BM46" s="9">
+        <v>42853.895833333336</v>
+      </c>
+      <c r="BN46" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP46">
+        <v>0.67949999999999999</v>
+      </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42866</v>
       </c>
@@ -6439,8 +6992,23 @@
       <c r="BJ47" s="3">
         <v>-0.13650000000000001</v>
       </c>
+      <c r="BL47" s="9">
+        <v>42856.645949074074</v>
+      </c>
+      <c r="BM47" s="9">
+        <v>42856.951157407406</v>
+      </c>
+      <c r="BN47" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO47" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP47" s="3">
+        <v>-0.20899999999999999</v>
+      </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42872</v>
       </c>
@@ -6598,8 +7166,23 @@
       <c r="BJ48">
         <v>2.0194999999999999</v>
       </c>
+      <c r="BL48" s="9">
+        <v>42858.694456018522</v>
+      </c>
+      <c r="BM48" s="9">
+        <v>42858.76771990741</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO48" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP48" s="3">
+        <v>-0.216</v>
+      </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42873</v>
       </c>
@@ -6750,8 +7333,23 @@
       <c r="BJ49" s="3">
         <v>-0.2135</v>
       </c>
+      <c r="BL49" s="9">
+        <v>42864.079976851855</v>
+      </c>
+      <c r="BM49" s="9">
+        <v>42864.767361111109</v>
+      </c>
+      <c r="BN49" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP49">
+        <v>0.79749999999999999</v>
+      </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42873</v>
       </c>
@@ -6902,8 +7500,23 @@
       <c r="BJ50">
         <v>0.49249999999999999</v>
       </c>
+      <c r="BL50" s="9">
+        <v>42864.909837962965</v>
+      </c>
+      <c r="BM50" s="9">
+        <v>42865.194444444445</v>
+      </c>
+      <c r="BN50" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO50" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP50">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42874</v>
       </c>
@@ -7061,8 +7674,23 @@
       <c r="BJ51">
         <v>0.27900000000000003</v>
       </c>
+      <c r="BL51" s="9">
+        <v>42865.645949074074</v>
+      </c>
+      <c r="BM51" s="9">
+        <v>42865.747916666667</v>
+      </c>
+      <c r="BN51" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO51" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP51" s="3">
+        <v>-0.20200000000000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42874</v>
       </c>
@@ -7220,8 +7848,23 @@
       <c r="BJ52">
         <v>1.0500000000000001E-2</v>
       </c>
+      <c r="BL52" s="9">
+        <v>42866.10765046296</v>
+      </c>
+      <c r="BM52" s="9">
+        <v>42866.40834490741</v>
+      </c>
+      <c r="BN52" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO52" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP52" s="3">
+        <v>-0.21</v>
+      </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42878</v>
       </c>
@@ -7379,8 +8022,23 @@
       <c r="BJ53">
         <v>0.13300000000000001</v>
       </c>
+      <c r="BL53" s="9">
+        <v>42866.864606481482</v>
+      </c>
+      <c r="BM53" s="9">
+        <v>42866.908819444441</v>
+      </c>
+      <c r="BN53" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO53" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP53" s="3">
+        <v>-0.23849999999999999</v>
+      </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42881</v>
       </c>
@@ -7531,8 +8189,23 @@
       <c r="BJ54" s="3">
         <v>-0.22</v>
       </c>
+      <c r="BL54" s="9">
+        <v>42867.684062499997</v>
+      </c>
+      <c r="BM54" s="9">
+        <v>42868.208368055559</v>
+      </c>
+      <c r="BN54" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO54" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP54">
+        <v>0.436</v>
+      </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42884</v>
       </c>
@@ -7690,8 +8363,23 @@
       <c r="BJ55" s="3">
         <v>-0.20449999999999999</v>
       </c>
+      <c r="BL55" s="9">
+        <v>42871.97928240741</v>
+      </c>
+      <c r="BM55" s="9">
+        <v>42872.704861111109</v>
+      </c>
+      <c r="BN55" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO55" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP55">
+        <v>0.78500000000000003</v>
+      </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42886</v>
       </c>
@@ -7842,8 +8530,23 @@
       <c r="BJ56">
         <v>0</v>
       </c>
+      <c r="BL56" s="9">
+        <v>42873.69803240741</v>
+      </c>
+      <c r="BM56" s="9">
+        <v>42873.72928240741</v>
+      </c>
+      <c r="BN56" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO56" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP56" s="3">
+        <v>-0.45450000000000002</v>
+      </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42886</v>
       </c>
@@ -8001,8 +8704,23 @@
       <c r="BJ57" s="3">
         <v>-0.23100000000000001</v>
       </c>
+      <c r="BL57" s="9">
+        <v>42873.73265046296</v>
+      </c>
+      <c r="BM57" s="9">
+        <v>42873.747696759259</v>
+      </c>
+      <c r="BN57" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO57" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP57" s="3">
+        <v>-0.214</v>
+      </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42888</v>
       </c>
@@ -8160,8 +8878,23 @@
       <c r="BJ58" s="3">
         <v>-0.2185</v>
       </c>
+      <c r="BL58" s="9">
+        <v>42873.940995370373</v>
+      </c>
+      <c r="BM58" s="9">
+        <v>42873.993078703701</v>
+      </c>
+      <c r="BN58" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO58" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP58" s="3">
+        <v>-0.23200000000000001</v>
+      </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42899</v>
       </c>
@@ -8319,8 +9052,23 @@
       <c r="BJ59">
         <v>0.64400000000000002</v>
       </c>
+      <c r="BL59" s="9">
+        <v>42874.107673611114</v>
+      </c>
+      <c r="BM59" s="9">
+        <v>42874.107905092591</v>
+      </c>
+      <c r="BN59" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO59" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP59" s="3">
+        <v>-0.34350000000000003</v>
+      </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42900</v>
       </c>
@@ -8478,8 +9226,23 @@
       <c r="BJ60" s="3">
         <v>-0.24399999999999999</v>
       </c>
+      <c r="BL60" s="9">
+        <v>42874.111157407409</v>
+      </c>
+      <c r="BM60" s="9">
+        <v>42874.8125462963</v>
+      </c>
+      <c r="BN60" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO60" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP60">
+        <v>0.84050000000000002</v>
+      </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42901</v>
       </c>
@@ -8630,8 +9393,23 @@
       <c r="BJ61">
         <v>1.6005</v>
       </c>
+      <c r="BL61" s="9">
+        <v>42878.000115740739</v>
+      </c>
+      <c r="BM61" s="9">
+        <v>42878.292361111111</v>
+      </c>
+      <c r="BN61" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO61" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP61" s="3">
+        <v>-0.2135</v>
+      </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42902</v>
       </c>
@@ -8782,8 +9560,23 @@
       <c r="BJ62">
         <v>0.34100000000000003</v>
       </c>
+      <c r="BL62" s="9">
+        <v>42881.902789351851</v>
+      </c>
+      <c r="BM62" s="9">
+        <v>42881.910312499997</v>
+      </c>
+      <c r="BN62" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO62" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP62" s="3">
+        <v>-0.2165</v>
+      </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42905</v>
       </c>
@@ -8941,8 +9734,23 @@
       <c r="BJ63">
         <v>0.35049999999999998</v>
       </c>
+      <c r="BL63" s="9">
+        <v>42884.937615740739</v>
+      </c>
+      <c r="BM63" s="9">
+        <v>42885.670254629629</v>
+      </c>
+      <c r="BN63" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO63" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP63">
+        <v>0.48099999999999998</v>
+      </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42906</v>
       </c>
@@ -9093,8 +9901,23 @@
       <c r="BJ64">
         <v>0.27900000000000003</v>
       </c>
+      <c r="BL64" s="9">
+        <v>42886.628472222219</v>
+      </c>
+      <c r="BM64" s="9">
+        <v>42886.640046296299</v>
+      </c>
+      <c r="BN64" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO64" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP64" s="3">
+        <v>-0.20949999999999999</v>
+      </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42906</v>
       </c>
@@ -9245,8 +10068,23 @@
       <c r="BJ65">
         <v>0.30399999999999999</v>
       </c>
+      <c r="BL65" s="9">
+        <v>42886.736122685186</v>
+      </c>
+      <c r="BM65" s="9">
+        <v>42886.741793981484</v>
+      </c>
+      <c r="BN65" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO65" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP65" s="3">
+        <v>-0.2145</v>
+      </c>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42906</v>
       </c>
@@ -9404,8 +10242,23 @@
       <c r="BJ66">
         <v>2.6499999999999999E-2</v>
       </c>
+      <c r="BL66" s="9">
+        <v>42888.899328703701</v>
+      </c>
+      <c r="BM66" s="9">
+        <v>42889.208356481482</v>
+      </c>
+      <c r="BN66" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO66" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP66">
+        <v>0.74399999999999999</v>
+      </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42907</v>
       </c>
@@ -9563,8 +10416,23 @@
       <c r="BJ67" s="3">
         <v>-0.23949999999999999</v>
       </c>
+      <c r="BL67" s="9">
+        <v>42892.812615740739</v>
+      </c>
+      <c r="BM67" s="9">
+        <v>42893.173611111109</v>
+      </c>
+      <c r="BN67" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO67" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP67">
+        <v>0.1045</v>
+      </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42912</v>
       </c>
@@ -9722,8 +10590,23 @@
       <c r="BJ68" s="3">
         <v>-0.14549999999999999</v>
       </c>
+      <c r="BL68" s="9">
+        <v>42896.052199074074</v>
+      </c>
+      <c r="BM68" s="9">
+        <v>42896.208333333336</v>
+      </c>
+      <c r="BN68" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO68" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP68">
+        <v>0.35949999999999999</v>
+      </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42913</v>
       </c>
@@ -9881,8 +10764,23 @@
       <c r="BJ69" s="3">
         <v>-0.21</v>
       </c>
+      <c r="BL69" s="9">
+        <v>42899.670138888891</v>
+      </c>
+      <c r="BM69" s="9">
+        <v>42899.99664351852</v>
+      </c>
+      <c r="BN69" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO69" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP69">
+        <v>0.14050000000000001</v>
+      </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42914</v>
       </c>
@@ -10040,8 +10938,23 @@
       <c r="BJ70">
         <v>1E-3</v>
       </c>
+      <c r="BL70" s="9">
+        <v>42900</v>
+      </c>
+      <c r="BM70" s="9">
+        <v>42900.026273148149</v>
+      </c>
+      <c r="BN70" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO70" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP70" s="3">
+        <v>-0.29899999999999999</v>
+      </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42914</v>
       </c>
@@ -10199,8 +11112,23 @@
       <c r="BJ71" s="3">
         <v>-1.5000000000200001E-3</v>
       </c>
+      <c r="BL71" s="9">
+        <v>42900.63890046296</v>
+      </c>
+      <c r="BM71" s="9">
+        <v>42900.734386574077</v>
+      </c>
+      <c r="BN71" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO71" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP71" s="3">
+        <v>-0.21249999999999999</v>
+      </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42914</v>
       </c>
@@ -10358,8 +11286,23 @@
       <c r="BJ72" s="3">
         <v>-0.20449999999999999</v>
       </c>
+      <c r="BL72" s="9">
+        <v>42900.899328703701</v>
+      </c>
+      <c r="BM72" s="9">
+        <v>42901.034745370373</v>
+      </c>
+      <c r="BN72" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO72" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP72">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42917</v>
       </c>
@@ -10517,8 +11460,23 @@
       <c r="BJ73" s="3">
         <v>-0.20349999999999999</v>
       </c>
+      <c r="BL73" s="9">
+        <v>42901.677106481482</v>
+      </c>
+      <c r="BM73" s="9">
+        <v>42901.833472222221</v>
+      </c>
+      <c r="BN73" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO73" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP73" s="3">
+        <v>-0.54549999999999998</v>
+      </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42922</v>
       </c>
@@ -10676,8 +11634,23 @@
       <c r="BJ74" s="3">
         <v>-0.20300000000000001</v>
       </c>
+      <c r="BL74" s="9">
+        <v>42901.836840277778</v>
+      </c>
+      <c r="BM74" s="9">
+        <v>42902.618090277778</v>
+      </c>
+      <c r="BN74" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO74" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP74">
+        <v>1.5860000000000001</v>
+      </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>42923</v>
       </c>
@@ -10835,8 +11808,23 @@
       <c r="BJ75" s="3">
         <v>-0.23849999999999999</v>
       </c>
+      <c r="BL75" s="9">
+        <v>42902.941006944442</v>
+      </c>
+      <c r="BM75" s="9">
+        <v>42902.970057870371</v>
+      </c>
+      <c r="BN75" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO75" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP75" s="3">
+        <v>-0.20649999999999999</v>
+      </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>42923</v>
       </c>
@@ -10994,8 +11982,23 @@
       <c r="BJ76" s="3">
         <v>-0.20699999999999999</v>
       </c>
+      <c r="BL76" s="9">
+        <v>42905.673611111109</v>
+      </c>
+      <c r="BM76" s="9">
+        <v>42905.812962962962</v>
+      </c>
+      <c r="BN76" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO76" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP76" s="3">
+        <v>-0.20799999999999999</v>
+      </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>42926</v>
       </c>
@@ -11153,8 +12156,23 @@
       <c r="BJ77" s="3">
         <v>-0.21</v>
       </c>
+      <c r="BL77" s="9">
+        <v>42906.006956018522</v>
+      </c>
+      <c r="BM77" s="9">
+        <v>42906.043067129627</v>
+      </c>
+      <c r="BN77" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO77" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP77" s="3">
+        <v>-0.20100000000000001</v>
+      </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>42927</v>
       </c>
@@ -11312,8 +12330,23 @@
       <c r="BJ78">
         <v>3.2500000000000001E-2</v>
       </c>
+      <c r="BL78" s="9">
+        <v>42906.677106481482</v>
+      </c>
+      <c r="BM78" s="9">
+        <v>42906.687638888892</v>
+      </c>
+      <c r="BN78" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO78" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP78" s="3">
+        <v>-0.66600000000000004</v>
+      </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>42929</v>
       </c>
@@ -11471,8 +12504,23 @@
       <c r="BJ79" s="3">
         <v>-0.1515</v>
       </c>
+      <c r="BL79" s="9">
+        <v>42906.691006944442</v>
+      </c>
+      <c r="BM79" s="9">
+        <v>42906.772951388892</v>
+      </c>
+      <c r="BN79" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO79" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP79" s="3">
+        <v>-0.20200000000000001</v>
+      </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>42930</v>
       </c>
@@ -11630,8 +12678,23 @@
       <c r="BJ80">
         <v>0.92449999999999999</v>
       </c>
+      <c r="BL80" s="9">
+        <v>42907.836851851855</v>
+      </c>
+      <c r="BM80" s="9">
+        <v>42908.003518518519</v>
+      </c>
+      <c r="BN80" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO80" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP80">
+        <v>1.8499999999999999E-2</v>
+      </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>42933</v>
       </c>
@@ -11789,8 +12852,23 @@
       <c r="BJ81" s="3">
         <v>-0.24149999999999999</v>
       </c>
+      <c r="BL81" s="9">
+        <v>42908.809074074074</v>
+      </c>
+      <c r="BM81" s="9">
+        <v>42908.908148148148</v>
+      </c>
+      <c r="BN81" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO81" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP81" s="3">
+        <v>-0.20399999999999999</v>
+      </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>42934</v>
       </c>
@@ -11948,8 +13026,23 @@
       <c r="BJ82" s="3">
         <v>-0.20200000000000001</v>
       </c>
+      <c r="BL82" s="9">
+        <v>42909.958391203705</v>
+      </c>
+      <c r="BM82" s="9">
+        <v>42910.090104166666</v>
+      </c>
+      <c r="BN82" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO82" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP82" s="3">
+        <v>-0.20050000000000001</v>
+      </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>42935</v>
       </c>
@@ -12107,8 +13200,23 @@
       <c r="BJ83" s="3">
         <v>-0.2495</v>
       </c>
+      <c r="BL83" s="9">
+        <v>42912.670138888891</v>
+      </c>
+      <c r="BM83" s="9">
+        <v>42912.908449074072</v>
+      </c>
+      <c r="BN83" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO83" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP83" s="3">
+        <v>-0.20799999999999999</v>
+      </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>42937</v>
       </c>
@@ -12266,8 +13374,23 @@
       <c r="BJ84" s="3">
         <v>-0.20449999999999999</v>
       </c>
+      <c r="BL84" s="9">
+        <v>42913.083344907405</v>
+      </c>
+      <c r="BM84" s="9">
+        <v>42914.347233796296</v>
+      </c>
+      <c r="BN84" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO84" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP84">
+        <v>1.6625000000000001</v>
+      </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>42941</v>
       </c>
@@ -12425,8 +13548,23 @@
       <c r="BJ85" s="3">
         <v>-0.20649999999999999</v>
       </c>
+      <c r="BL85" s="9">
+        <v>42914.718761574077</v>
+      </c>
+      <c r="BM85" s="9">
+        <v>42914.743530092594</v>
+      </c>
+      <c r="BN85" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO85" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP85" s="3">
+        <v>-0.22950000000000001</v>
+      </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>42943</v>
       </c>
@@ -12584,8 +13722,23 @@
       <c r="BJ86" s="3">
         <v>-0.22900000000000001</v>
       </c>
+      <c r="BL86" s="9">
+        <v>42914.888912037037</v>
+      </c>
+      <c r="BM86" s="9">
+        <v>42914.894236111111</v>
+      </c>
+      <c r="BN86" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO86" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP86" s="3">
+        <v>-0.2505</v>
+      </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>42944</v>
       </c>
@@ -12743,8 +13896,23 @@
       <c r="BJ87">
         <v>0.81699999999999995</v>
       </c>
+      <c r="BL87" s="9">
+        <v>42914.944479166668</v>
+      </c>
+      <c r="BM87" s="9">
+        <v>42915.020868055559</v>
+      </c>
+      <c r="BN87" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO87" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP87">
+        <v>0.156</v>
+      </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>42947</v>
       </c>
@@ -12902,8 +14070,23 @@
       <c r="BJ88">
         <v>0.2195</v>
       </c>
+      <c r="BL88" s="9">
+        <v>42917.000034722223</v>
+      </c>
+      <c r="BM88" s="9">
+        <v>42917.208368055559</v>
+      </c>
+      <c r="BN88" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO88" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP88">
+        <v>0.55449999999999999</v>
+      </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>42948</v>
       </c>
@@ -13054,8 +14237,23 @@
       <c r="BJ89" s="3">
         <v>-0.26400000000000001</v>
       </c>
+      <c r="BL89" s="9">
+        <v>42922.788194444445</v>
+      </c>
+      <c r="BM89" s="9">
+        <v>42922.831944444442</v>
+      </c>
+      <c r="BN89" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO89" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP89" s="3">
+        <v>-0.20499999999999999</v>
+      </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>42948</v>
       </c>
@@ -13206,8 +14404,23 @@
       <c r="BJ90">
         <v>0.85250000000000004</v>
       </c>
+      <c r="BL90" s="9">
+        <v>42923.73265046296</v>
+      </c>
+      <c r="BM90" s="9">
+        <v>42923.906261574077</v>
+      </c>
+      <c r="BN90" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO90" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP90">
+        <v>8.7999999999999995E-2</v>
+      </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>42950</v>
       </c>
@@ -13365,8 +14578,23 @@
       <c r="BJ91" s="3">
         <v>-0.22450000000000001</v>
       </c>
+      <c r="BL91" s="9">
+        <v>42923.909733796296</v>
+      </c>
+      <c r="BM91" s="9">
+        <v>42924.208344907405</v>
+      </c>
+      <c r="BN91" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO91" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP91">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>42955</v>
       </c>
@@ -13524,8 +14752,23 @@
       <c r="BJ92" s="3">
         <v>-0.20599999999999999</v>
       </c>
+      <c r="BL92" s="9">
+        <v>42926.909837962965</v>
+      </c>
+      <c r="BM92" s="9">
+        <v>42926.947453703702</v>
+      </c>
+      <c r="BN92" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO92" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP92" s="3">
+        <v>-0.20549999999999999</v>
+      </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>42957</v>
       </c>
@@ -13676,8 +14919,23 @@
       <c r="BJ93">
         <v>0.218</v>
       </c>
+      <c r="BL93" s="9">
+        <v>42927.892372685186</v>
+      </c>
+      <c r="BM93" s="9">
+        <v>42927.89607638889</v>
+      </c>
+      <c r="BN93" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO93" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP93" s="3">
+        <v>-0.3115</v>
+      </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>42958</v>
       </c>
@@ -13835,8 +15093,23 @@
       <c r="BJ94" s="3">
         <v>-0.20549999999999999</v>
       </c>
+      <c r="BL94" s="9">
+        <v>42929.666689814818</v>
+      </c>
+      <c r="BM94" s="9">
+        <v>42929.712407407409</v>
+      </c>
+      <c r="BN94" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO94" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP94" s="3">
+        <v>-0.20150000000000001</v>
+      </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>42958</v>
       </c>
@@ -13987,8 +15260,23 @@
       <c r="BJ95">
         <v>0.26</v>
       </c>
+      <c r="BL95" s="9">
+        <v>42930.899340277778</v>
+      </c>
+      <c r="BM95" s="9">
+        <v>42930.949340277781</v>
+      </c>
+      <c r="BN95" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO95" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP95" s="3">
+        <v>-0.22850000000000001</v>
+      </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>42962</v>
       </c>
@@ -14146,8 +15434,23 @@
       <c r="BJ96" s="3">
         <v>-0.2165</v>
       </c>
+      <c r="BL96" s="9">
+        <v>42933.989699074074</v>
+      </c>
+      <c r="BM96" s="9">
+        <v>42934.120023148149</v>
+      </c>
+      <c r="BN96" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO96" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP96" s="3">
+        <v>-0.20499999999999999</v>
+      </c>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>42963</v>
       </c>
@@ -14305,8 +15608,23 @@
       <c r="BJ97">
         <v>0.49149999999999999</v>
       </c>
+      <c r="BL97" s="9">
+        <v>42934.73265046296</v>
+      </c>
+      <c r="BM97" s="9">
+        <v>42935.052094907405</v>
+      </c>
+      <c r="BN97" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO97" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP97">
+        <v>0.39150000000000001</v>
+      </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>42968</v>
       </c>
@@ -14457,8 +15775,23 @@
       <c r="BJ98">
         <v>0.48099999999999998</v>
       </c>
+      <c r="BL98" s="9">
+        <v>42935.909733796296</v>
+      </c>
+      <c r="BM98" s="9">
+        <v>42936.249664351853</v>
+      </c>
+      <c r="BN98" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO98" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP98" s="3">
+        <v>-0.20499999999999999</v>
+      </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>42969</v>
       </c>
@@ -14616,8 +15949,23 @@
       <c r="BJ99" s="3">
         <v>-0.20100000000000001</v>
       </c>
+      <c r="BL99" s="9">
+        <v>42937.812523148146</v>
+      </c>
+      <c r="BM99" s="9">
+        <v>42938.208356481482</v>
+      </c>
+      <c r="BN99" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO99" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP99">
+        <v>0.73750000000000004</v>
+      </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>42977</v>
       </c>
@@ -14775,8 +16123,23 @@
       <c r="BJ100" s="3">
         <v>-0.20899999999999999</v>
       </c>
+      <c r="BL100" s="9">
+        <v>42940.673611111109</v>
+      </c>
+      <c r="BM100" s="9">
+        <v>42940.752546296295</v>
+      </c>
+      <c r="BN100" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO100" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP100" s="3">
+        <v>-0.20349999999999999</v>
+      </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>42979</v>
       </c>
@@ -14934,8 +16297,23 @@
       <c r="BJ101">
         <v>0.46100000000000002</v>
       </c>
+      <c r="BL101" s="9">
+        <v>42941.854178240741</v>
+      </c>
+      <c r="BM101" s="9">
+        <v>42943.128483796296</v>
+      </c>
+      <c r="BN101" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO101" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP101">
+        <v>0.73850000000000005</v>
+      </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>42982</v>
       </c>
@@ -15086,8 +16464,23 @@
       <c r="BJ102" s="3">
         <v>-0.20949999999999999</v>
       </c>
+      <c r="BL102" s="9">
+        <v>42947.788194444445</v>
+      </c>
+      <c r="BM102" s="9">
+        <v>42947.993981481479</v>
+      </c>
+      <c r="BN102" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO102" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP102" s="3">
+        <v>-0.223</v>
+      </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>42985</v>
       </c>
@@ -15245,8 +16638,23 @@
       <c r="BJ103" s="3">
         <v>-0.2145</v>
       </c>
+      <c r="BL103" s="9">
+        <v>42948.000011574077</v>
+      </c>
+      <c r="BM103" s="9">
+        <v>42948.170497685183</v>
+      </c>
+      <c r="BN103" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO103" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP103" s="3">
+        <v>-0.20549999999999999</v>
+      </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>42985</v>
       </c>
@@ -15404,8 +16812,23 @@
       <c r="BJ104">
         <v>0.35349999999999998</v>
       </c>
+      <c r="BL104" s="9">
+        <v>42949.687523148146</v>
+      </c>
+      <c r="BM104" s="9">
+        <v>42949.955810185187</v>
+      </c>
+      <c r="BN104" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO104" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP104" s="3">
+        <v>-0.214</v>
+      </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>42990</v>
       </c>
@@ -15556,8 +16979,23 @@
       <c r="BJ105">
         <v>0.74399999999999999</v>
       </c>
+      <c r="BL105" s="9">
+        <v>42950.736145833333</v>
+      </c>
+      <c r="BM105" s="9">
+        <v>42950.776192129626</v>
+      </c>
+      <c r="BN105" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO105" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP105" s="3">
+        <v>-0.22600000000000001</v>
+      </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>42992</v>
       </c>
@@ -15715,8 +17153,23 @@
       <c r="BJ106" s="3">
         <v>-0.21149999999999999</v>
       </c>
+      <c r="BL106" s="9">
+        <v>42950.836851851855</v>
+      </c>
+      <c r="BM106" s="9">
+        <v>42951.493101851855</v>
+      </c>
+      <c r="BN106" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO106" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP106">
+        <v>0.85650000000000004</v>
+      </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42992</v>
       </c>
@@ -15867,8 +17320,23 @@
       <c r="BJ107">
         <v>0.39</v>
       </c>
+      <c r="BL107" s="9">
+        <v>42951.899351851855</v>
+      </c>
+      <c r="BM107" s="9">
+        <v>42952.208379629628</v>
+      </c>
+      <c r="BN107" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO107" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP107">
+        <v>0.53849999999999998</v>
+      </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42993</v>
       </c>
@@ -16026,8 +17494,23 @@
       <c r="BJ108" s="3">
         <v>-0.10150000000000001</v>
       </c>
+      <c r="BL108" s="9">
+        <v>42955.826388888891</v>
+      </c>
+      <c r="BM108" s="9">
+        <v>42956.489583333336</v>
+      </c>
+      <c r="BN108" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO108" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP108">
+        <v>1.1034999999999999</v>
+      </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42993</v>
       </c>
@@ -16185,8 +17668,23 @@
       <c r="BJ109" s="3">
         <v>-0.20200000000000001</v>
       </c>
+      <c r="BL109" s="9">
+        <v>42957.88553240741</v>
+      </c>
+      <c r="BM109" s="9">
+        <v>42958.618055555555</v>
+      </c>
+      <c r="BN109" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO109" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP109">
+        <v>0.86450000000000005</v>
+      </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42997</v>
       </c>
@@ -16344,8 +17842,23 @@
       <c r="BJ110" s="3">
         <v>-0.26650000000000001</v>
       </c>
+      <c r="BL110" s="9">
+        <v>42958.895949074074</v>
+      </c>
+      <c r="BM110" s="9">
+        <v>42958.918981481482</v>
+      </c>
+      <c r="BN110" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO110" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP110" s="3">
+        <v>-0.224</v>
+      </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42998</v>
       </c>
@@ -16503,8 +18016,23 @@
       <c r="BJ111" s="3">
         <v>-0.221</v>
       </c>
+      <c r="BL111" s="9">
+        <v>42958.92015046296</v>
+      </c>
+      <c r="BM111" s="9">
+        <v>42958.940868055557</v>
+      </c>
+      <c r="BN111" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO111" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP111" s="3">
+        <v>-0.222</v>
+      </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43000</v>
       </c>
@@ -16655,8 +18183,23 @@
       <c r="BJ112" s="3">
         <v>-2.9999999999899998E-3</v>
       </c>
+      <c r="BL112" s="9">
+        <v>42961.704976851855</v>
+      </c>
+      <c r="BM112" s="9">
+        <v>42961.742592592593</v>
+      </c>
+      <c r="BN112" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO112" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP112" s="3">
+        <v>-0.21099999999999999</v>
+      </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43003</v>
       </c>
@@ -16814,8 +18357,23 @@
       <c r="BJ113" s="3">
         <v>-0.20100000000000001</v>
       </c>
+      <c r="BL113" s="9">
+        <v>42962.73265046296</v>
+      </c>
+      <c r="BM113" s="9">
+        <v>42963.67015046296</v>
+      </c>
+      <c r="BN113" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO113" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP113">
+        <v>5.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43007</v>
       </c>
@@ -16973,8 +18531,23 @@
       <c r="BJ114" s="3">
         <v>-0.20949999999999999</v>
       </c>
+      <c r="BL114" s="9">
+        <v>42963.73265046296</v>
+      </c>
+      <c r="BM114" s="9">
+        <v>42963.793530092589</v>
+      </c>
+      <c r="BN114" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO114" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP114" s="3">
+        <v>-0.20799999999999999</v>
+      </c>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43007</v>
       </c>
@@ -17125,8 +18698,23 @@
       <c r="BJ115">
         <v>0.14399999999999999</v>
       </c>
+      <c r="BL115" s="9">
+        <v>42968.628587962965</v>
+      </c>
+      <c r="BM115" s="9">
+        <v>42969.378587962965</v>
+      </c>
+      <c r="BN115" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO115" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP115" s="3">
+        <v>-0.20599999999999999</v>
+      </c>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43008</v>
       </c>
@@ -17284,8 +18872,23 @@
       <c r="BJ116" s="3">
         <v>-0.20799999999999999</v>
       </c>
+      <c r="BL116" s="9">
+        <v>42977.135416666664</v>
+      </c>
+      <c r="BM116" s="9">
+        <v>42978.257060185184</v>
+      </c>
+      <c r="BN116" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO116" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP116">
+        <v>1.0425</v>
+      </c>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43010</v>
       </c>
@@ -17443,8 +19046,23 @@
       <c r="BJ117" s="3">
         <v>-0.20499999999999999</v>
       </c>
+      <c r="BL117" s="9">
+        <v>42979.722337962965</v>
+      </c>
+      <c r="BM117" s="9">
+        <v>42979.729398148149</v>
+      </c>
+      <c r="BN117" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO117" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP117" s="3">
+        <v>-0.20849999999999999</v>
+      </c>
     </row>
-    <row r="118" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>43011</v>
       </c>
@@ -17595,8 +19213,23 @@
       <c r="BJ118">
         <v>0.55700000000000005</v>
       </c>
+      <c r="BL118" s="9">
+        <v>42982.628587962965</v>
+      </c>
+      <c r="BM118" s="9">
+        <v>42982.890046296299</v>
+      </c>
+      <c r="BN118" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO118" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP118" s="3">
+        <v>-0.22</v>
+      </c>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>43013</v>
       </c>
@@ -17754,8 +19387,23 @@
       <c r="BJ119" s="3">
         <v>-0.21149999999999999</v>
       </c>
+      <c r="BL119" s="9">
+        <v>42983.069456018522</v>
+      </c>
+      <c r="BM119" s="9">
+        <v>42983.238206018519</v>
+      </c>
+      <c r="BN119" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO119" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP119" s="3">
+        <v>-0.20849999999999999</v>
+      </c>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>43015</v>
       </c>
@@ -17906,8 +19554,23 @@
       <c r="BJ120" s="3">
         <v>-0.20300000000000001</v>
       </c>
+      <c r="BL120" s="9">
+        <v>42985.086828703701</v>
+      </c>
+      <c r="BM120" s="9">
+        <v>42985.372476851851</v>
+      </c>
+      <c r="BN120" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO120" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP120" s="3">
+        <v>-0.20100000000000001</v>
+      </c>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>43019</v>
       </c>
@@ -18065,8 +19728,23 @@
       <c r="BJ121" s="3">
         <v>-0.3795</v>
       </c>
+      <c r="BL121" s="9">
+        <v>42989.680555555555</v>
+      </c>
+      <c r="BM121" s="9">
+        <v>42989.750347222223</v>
+      </c>
+      <c r="BN121" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO121" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP121" s="3">
+        <v>-0.2145</v>
+      </c>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>43020</v>
       </c>
@@ -18217,8 +19895,23 @@
       <c r="BJ122">
         <v>0.4345</v>
       </c>
+      <c r="BL122" s="9">
+        <v>42990.052094907405</v>
+      </c>
+      <c r="BM122" s="9">
+        <v>42990.979178240741</v>
+      </c>
+      <c r="BN122" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO122" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP122">
+        <v>1.7829999999999999</v>
+      </c>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>43021</v>
       </c>
@@ -18376,8 +20069,23 @@
       <c r="BJ123" s="3">
         <v>-0.22500000000000001</v>
       </c>
+      <c r="BL123" s="9">
+        <v>42991.986122685186</v>
+      </c>
+      <c r="BM123" s="9">
+        <v>42992.02616898148</v>
+      </c>
+      <c r="BN123" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO123" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP123" s="3">
+        <v>-0.215</v>
+      </c>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>43024</v>
       </c>
@@ -18528,8 +20236,23 @@
       <c r="BJ124">
         <v>0.49349999999999999</v>
       </c>
+      <c r="BL124" s="9">
+        <v>42992.836828703701</v>
+      </c>
+      <c r="BM124" s="9">
+        <v>42992.913217592592</v>
+      </c>
+      <c r="BN124" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO124" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP124">
+        <v>0.78700000000000003</v>
+      </c>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>43027</v>
       </c>
@@ -18687,8 +20410,23 @@
       <c r="BJ125" s="3">
         <v>-0.21299999999999999</v>
       </c>
+      <c r="BL125" s="9">
+        <v>42993.006967592592</v>
+      </c>
+      <c r="BM125" s="9">
+        <v>42993.233703703707</v>
+      </c>
+      <c r="BN125" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO125" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP125" s="3">
+        <v>-0.22600000000000001</v>
+      </c>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>43032</v>
       </c>
@@ -18846,8 +20584,23 @@
       <c r="BJ126" s="3">
         <v>-0.20150000000000001</v>
       </c>
+      <c r="BL126" s="9">
+        <v>42993.659756944442</v>
+      </c>
+      <c r="BM126" s="9">
+        <v>42993.668321759258</v>
+      </c>
+      <c r="BN126" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO126" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP126" s="3">
+        <v>-0.21</v>
+      </c>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>43033</v>
       </c>
@@ -19005,8 +20758,23 @@
       <c r="BJ127">
         <v>0.48649999999999999</v>
       </c>
+      <c r="BL127" s="9">
+        <v>42993.746574074074</v>
+      </c>
+      <c r="BM127" s="9">
+        <v>42993.826435185183</v>
+      </c>
+      <c r="BN127" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO127" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP127">
+        <v>1.627</v>
+      </c>
     </row>
-    <row r="128" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>43035</v>
       </c>
@@ -19157,8 +20925,23 @@
       <c r="BJ128">
         <v>6.25E-2</v>
       </c>
+      <c r="BL128" s="9">
+        <v>42996.642476851855</v>
+      </c>
+      <c r="BM128" s="9">
+        <v>42996.673148148147</v>
+      </c>
+      <c r="BN128" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO128" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP128" s="3">
+        <v>-0.22800000000000001</v>
+      </c>
     </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>43035</v>
       </c>
@@ -19309,8 +21092,23 @@
       <c r="BJ129" s="3">
         <v>-0.2205</v>
       </c>
+      <c r="BL129" s="9">
+        <v>42997.003483796296</v>
+      </c>
+      <c r="BM129" s="9">
+        <v>42997.010659722226</v>
+      </c>
+      <c r="BN129" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO129" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP129" s="3">
+        <v>-0.216</v>
+      </c>
     </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>43038</v>
       </c>
@@ -19468,8 +21266,23 @@
       <c r="BJ130" s="3">
         <v>-0.20200000000000001</v>
       </c>
+      <c r="BL130" s="9">
+        <v>42998.732662037037</v>
+      </c>
+      <c r="BM130" s="9">
+        <v>42998.734050925923</v>
+      </c>
+      <c r="BN130" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO130" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP130" s="3">
+        <v>-0.20300000000000001</v>
+      </c>
     </row>
-    <row r="131" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>43039</v>
       </c>
@@ -19627,8 +21440,23 @@
       <c r="BJ131" s="3">
         <v>-0.21199999999999999</v>
       </c>
+      <c r="BL131" s="9">
+        <v>42999.649340277778</v>
+      </c>
+      <c r="BM131" s="9">
+        <v>42999.737303240741</v>
+      </c>
+      <c r="BN131" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO131" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP131" s="3">
+        <v>-0.21099999999999999</v>
+      </c>
     </row>
-    <row r="132" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>43040</v>
       </c>
@@ -19786,8 +21614,23 @@
       <c r="BJ132">
         <v>1.242</v>
       </c>
+      <c r="BL132" s="9">
+        <v>43000.0000462963</v>
+      </c>
+      <c r="BM132" s="9">
+        <v>43000.427129629628</v>
+      </c>
+      <c r="BN132" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO132" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP132">
+        <v>4.7E-2</v>
+      </c>
     </row>
-    <row r="133" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>43041</v>
       </c>
@@ -19945,8 +21788,23 @@
       <c r="BJ133">
         <v>0.45900000000000002</v>
       </c>
+      <c r="BL133" s="9">
+        <v>43003.996527777781</v>
+      </c>
+      <c r="BM133" s="9">
+        <v>43004.069444444445</v>
+      </c>
+      <c r="BN133" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO133" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP133">
+        <v>0.99199999999999999</v>
+      </c>
     </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>43045</v>
       </c>
@@ -20104,8 +21962,23 @@
       <c r="BJ134" s="3">
         <v>-4.9000000000000002E-2</v>
       </c>
+      <c r="BL134" s="9">
+        <v>43007</v>
+      </c>
+      <c r="BM134" s="9">
+        <v>43007.009143518517</v>
+      </c>
+      <c r="BN134" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO134" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP134" s="3">
+        <v>-0.20300000000000001</v>
+      </c>
     </row>
-    <row r="135" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>43047</v>
       </c>
@@ -20263,8 +22136,23 @@
       <c r="BJ135" s="3">
         <v>-0.20399999999999999</v>
       </c>
+      <c r="BL135" s="9">
+        <v>43007.684039351851</v>
+      </c>
+      <c r="BM135" s="9">
+        <v>43007.996539351851</v>
+      </c>
+      <c r="BN135" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO135" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP135" s="3">
+        <v>-8.5500000000000007E-2</v>
+      </c>
     </row>
-    <row r="136" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>43048</v>
       </c>
@@ -20422,8 +22310,23 @@
       <c r="BJ136" s="3">
         <v>-0.20050000000000001</v>
       </c>
+      <c r="BL136" s="9">
+        <v>43008.121550925927</v>
+      </c>
+      <c r="BM136" s="9">
+        <v>43008.166458333333</v>
+      </c>
+      <c r="BN136" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO136" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP136" s="3">
+        <v>-0.20300000000000001</v>
+      </c>
     </row>
-    <row r="137" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>43053</v>
       </c>
@@ -20581,8 +22484,23 @@
       <c r="BJ137" s="3">
         <v>-0.20749999999999999</v>
       </c>
+      <c r="BL137" s="9">
+        <v>43010.889004629629</v>
+      </c>
+      <c r="BM137" s="9">
+        <v>43011.456944444442</v>
+      </c>
+      <c r="BN137" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO137" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP137" s="3">
+        <v>-0.20300000000000001</v>
+      </c>
     </row>
-    <row r="138" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>43054</v>
       </c>
@@ -20740,8 +22658,23 @@
       <c r="BJ138" s="3">
         <v>-0.2165</v>
       </c>
+      <c r="BL138" s="9">
+        <v>43011.73265046296</v>
+      </c>
+      <c r="BM138" s="9">
+        <v>43012.961817129632</v>
+      </c>
+      <c r="BN138" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO138" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP138">
+        <v>0.126</v>
+      </c>
     </row>
-    <row r="139" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>43055</v>
       </c>
@@ -20899,8 +22832,23 @@
       <c r="BJ139">
         <v>0.39750000000000002</v>
       </c>
+      <c r="BL139" s="9">
+        <v>43013.673622685186</v>
+      </c>
+      <c r="BM139" s="9">
+        <v>43014.850706018522</v>
+      </c>
+      <c r="BN139" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO139" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP139">
+        <v>0.84050000000000002</v>
+      </c>
     </row>
-    <row r="140" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43056</v>
       </c>
@@ -21051,8 +22999,23 @@
       <c r="BJ140" s="3">
         <v>-0.214</v>
       </c>
+      <c r="BL140" s="9">
+        <v>43015.010428240741</v>
+      </c>
+      <c r="BM140" s="9">
+        <v>43015.208344907405</v>
+      </c>
+      <c r="BN140" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO140" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP140" s="3">
+        <v>-3.4000000000000002E-2</v>
+      </c>
     </row>
-    <row r="141" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43063</v>
       </c>
@@ -21210,8 +23173,23 @@
       <c r="BJ141" s="3">
         <v>-0.2505</v>
       </c>
+      <c r="BL141" s="9">
+        <v>43019.923611111109</v>
+      </c>
+      <c r="BM141" s="9">
+        <v>43020.022337962961</v>
+      </c>
+      <c r="BN141" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO141" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP141" s="3">
+        <v>-0.20200000000000001</v>
+      </c>
     </row>
-    <row r="142" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43067</v>
       </c>
@@ -21369,8 +23347,23 @@
       <c r="BJ142">
         <v>0.156</v>
       </c>
+      <c r="BL142" s="9">
+        <v>43020.819456018522</v>
+      </c>
+      <c r="BM142" s="9">
+        <v>43020.972233796296</v>
+      </c>
+      <c r="BN142" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO142" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP142">
+        <v>0.19800000000000001</v>
+      </c>
     </row>
-    <row r="143" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43068</v>
       </c>
@@ -21528,8 +23521,23 @@
       <c r="BJ143" s="3">
         <v>-0.20449999999999999</v>
       </c>
+      <c r="BL143" s="9">
+        <v>43021.052094907405</v>
+      </c>
+      <c r="BM143" s="9">
+        <v>43021.652789351851</v>
+      </c>
+      <c r="BN143" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO143" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP143">
+        <v>1.2E-2</v>
+      </c>
     </row>
-    <row r="144" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43068</v>
       </c>
@@ -21680,8 +23688,23 @@
       <c r="BJ144" s="3">
         <v>-0.216</v>
       </c>
+      <c r="BL144" s="9">
+        <v>43021.788206018522</v>
+      </c>
+      <c r="BM144" s="9">
+        <v>43021.818414351852</v>
+      </c>
+      <c r="BN144" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO144" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP144" s="3">
+        <v>-0.20250000000000001</v>
+      </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43069</v>
       </c>
@@ -21839,8 +23862,23 @@
       <c r="BJ145">
         <v>0.45400000000000001</v>
       </c>
+      <c r="BL145" s="9">
+        <v>43024.899305555555</v>
+      </c>
+      <c r="BM145" s="9">
+        <v>43024.918634259258</v>
+      </c>
+      <c r="BN145" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO145" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP145" s="3">
+        <v>-0.23649999999999999</v>
+      </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43070</v>
       </c>
@@ -21991,8 +24029,23 @@
       <c r="BJ146" s="3">
         <v>-4.9000000000000002E-2</v>
       </c>
+      <c r="BL146" s="9">
+        <v>43027.73265046296</v>
+      </c>
+      <c r="BM146" s="9">
+        <v>43027.746770833335</v>
+      </c>
+      <c r="BN146" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO146" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP146" s="3">
+        <v>-0.20150000000000001</v>
+      </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43071</v>
       </c>
@@ -22150,8 +24203,23 @@
       <c r="BJ147">
         <v>0.57050000000000001</v>
       </c>
+      <c r="BL147" s="9">
+        <v>43029.013912037037</v>
+      </c>
+      <c r="BM147" s="9">
+        <v>43029.208356481482</v>
+      </c>
+      <c r="BN147" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO147" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP147">
+        <v>2.35E-2</v>
+      </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43073</v>
       </c>
@@ -22309,8 +24377,23 @@
       <c r="BJ148" s="3">
         <v>-0.2135</v>
       </c>
+      <c r="BL148" s="9">
+        <v>43031.628587962965</v>
+      </c>
+      <c r="BM148" s="9">
+        <v>43031.672569444447</v>
+      </c>
+      <c r="BN148" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO148" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP148" s="3">
+        <v>-0.20050000000000001</v>
+      </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43074</v>
       </c>
@@ -22468,8 +24551,23 @@
       <c r="BJ149">
         <v>9.7000000000000003E-2</v>
       </c>
+      <c r="BL149" s="9">
+        <v>43033.73265046296</v>
+      </c>
+      <c r="BM149" s="9">
+        <v>43033.930567129632</v>
+      </c>
+      <c r="BN149" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO149" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP149">
+        <v>1.0654999999999999</v>
+      </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43075</v>
       </c>
@@ -22627,8 +24725,23 @@
       <c r="BJ150" s="3">
         <v>-0.20499999999999999</v>
       </c>
+      <c r="BL150" s="9">
+        <v>43035.711817129632</v>
+      </c>
+      <c r="BM150" s="9">
+        <v>43035.78670138889</v>
+      </c>
+      <c r="BN150" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO150" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP150" s="3">
+        <v>-0.21049999999999999</v>
+      </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43076</v>
       </c>
@@ -22779,8 +24892,23 @@
       <c r="BJ151">
         <v>0.40150000000000002</v>
       </c>
+      <c r="BL151" s="9">
+        <v>43035.951412037037</v>
+      </c>
+      <c r="BM151" s="9">
+        <v>43036.006851851853</v>
+      </c>
+      <c r="BN151" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO151" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP151" s="3">
+        <v>-0.20399999999999999</v>
+      </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43077</v>
       </c>
@@ -22938,8 +25066,23 @@
       <c r="BJ152">
         <v>8.9999999999900004E-3</v>
       </c>
+      <c r="BL152" s="9">
+        <v>43038.677199074074</v>
+      </c>
+      <c r="BM152" s="9">
+        <v>43038.708449074074</v>
+      </c>
+      <c r="BN152" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO152" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP152" s="3">
+        <v>-0.22450000000000001</v>
+      </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43077</v>
       </c>
@@ -23090,8 +25233,23 @@
       <c r="BJ153">
         <v>0.14000000000000001</v>
       </c>
+      <c r="BL153" s="9">
+        <v>43039.92015046296</v>
+      </c>
+      <c r="BM153" s="9">
+        <v>43040.975706018522</v>
+      </c>
+      <c r="BN153" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO153" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP153">
+        <v>1.319</v>
+      </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43082</v>
       </c>
@@ -23242,8 +25400,23 @@
       <c r="BJ154">
         <v>6.0999999999999999E-2</v>
       </c>
+      <c r="BL154" s="9">
+        <v>43040.979178240741</v>
+      </c>
+      <c r="BM154" s="9">
+        <v>43041.156956018516</v>
+      </c>
+      <c r="BN154" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO154" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP154" s="3">
+        <v>-0.2135</v>
+      </c>
     </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43089</v>
       </c>
@@ -23401,8 +25574,23 @@
       <c r="BJ155" s="3">
         <v>-0.2485</v>
       </c>
+      <c r="BL155" s="9">
+        <v>43041.878495370373</v>
+      </c>
+      <c r="BM155" s="9">
+        <v>43042.069467592592</v>
+      </c>
+      <c r="BN155" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO155" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP155">
+        <v>0.75649999999999995</v>
+      </c>
     </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43095</v>
       </c>
@@ -23560,8 +25748,23 @@
       <c r="BJ156" s="3">
         <v>-0.20349999999999999</v>
       </c>
+      <c r="BL156" s="9">
+        <v>43045.659837962965</v>
+      </c>
+      <c r="BM156" s="9">
+        <v>43046.951388888891</v>
+      </c>
+      <c r="BN156" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO156" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP156">
+        <v>0.151</v>
+      </c>
     </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43097</v>
       </c>
@@ -23719,8 +25922,23 @@
       <c r="BJ157">
         <v>0.30449999999999999</v>
       </c>
+      <c r="BL157" s="9">
+        <v>43047.66678240741</v>
+      </c>
+      <c r="BM157" s="9">
+        <v>43048.045138888891</v>
+      </c>
+      <c r="BN157" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO157" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP157">
+        <v>0.80049999999999999</v>
+      </c>
     </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43102</v>
       </c>
@@ -23878,8 +26096,23 @@
       <c r="BJ158" s="3">
         <v>-0.20150000000000001</v>
       </c>
+      <c r="BL158" s="9">
+        <v>43048.79178240741</v>
+      </c>
+      <c r="BM158" s="9">
+        <v>43048.850115740737</v>
+      </c>
+      <c r="BN158" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO158" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP158" s="3">
+        <v>-0.20499999999999999</v>
+      </c>
     </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43108</v>
       </c>
@@ -24037,8 +26270,23 @@
       <c r="BJ159" s="3">
         <v>-2.7E-2</v>
       </c>
+      <c r="BL159" s="9">
+        <v>43052.94803240741</v>
+      </c>
+      <c r="BM159" s="9">
+        <v>43052.972453703704</v>
+      </c>
+      <c r="BN159" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO159" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP159" s="3">
+        <v>-0.20599999999999999</v>
+      </c>
     </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43109</v>
       </c>
@@ -24196,8 +26444,23 @@
       <c r="BJ160" s="3">
         <v>-0.22850000000000001</v>
       </c>
+      <c r="BL160" s="9">
+        <v>43053.774317129632</v>
+      </c>
+      <c r="BM160" s="9">
+        <v>43054.084270833337</v>
+      </c>
+      <c r="BN160" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO160" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP160" s="3">
+        <v>-0.20949999999999999</v>
+      </c>
     </row>
-    <row r="161" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43110</v>
       </c>
@@ -24355,8 +26618,23 @@
       <c r="BJ161">
         <v>0.56299999999999994</v>
       </c>
+      <c r="BL161" s="9">
+        <v>43054.090300925927</v>
+      </c>
+      <c r="BM161" s="9">
+        <v>43054.424097222225</v>
+      </c>
+      <c r="BN161" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO161" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP161" s="3">
+        <v>-0.2145</v>
+      </c>
     </row>
-    <row r="162" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43111</v>
       </c>
@@ -24507,8 +26785,23 @@
       <c r="BJ162">
         <v>0.67049999999999998</v>
       </c>
+      <c r="BL162" s="9">
+        <v>43056.635451388887</v>
+      </c>
+      <c r="BM162" s="9">
+        <v>43056.831863425927</v>
+      </c>
+      <c r="BN162" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO162" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP162" s="3">
+        <v>-0.23749999999999999</v>
+      </c>
     </row>
-    <row r="163" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43112</v>
       </c>
@@ -24666,8 +26959,23 @@
       <c r="BJ163">
         <v>0.70699999999999996</v>
       </c>
+      <c r="BL163" s="9">
+        <v>43056.833379629628</v>
+      </c>
+      <c r="BM163" s="9">
+        <v>43057.208379629628</v>
+      </c>
+      <c r="BN163" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO163" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP163">
+        <v>0.50900000000000001</v>
+      </c>
     </row>
-    <row r="164" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43117</v>
       </c>
@@ -24825,8 +27133,23 @@
       <c r="BJ164" s="3">
         <v>-0.21149999999999999</v>
       </c>
+      <c r="BL164" s="9">
+        <v>43060.736111111109</v>
+      </c>
+      <c r="BM164" s="9">
+        <v>43060.76122685185</v>
+      </c>
+      <c r="BN164" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO164" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP164" s="3">
+        <v>-0.20150000000000001</v>
+      </c>
     </row>
-    <row r="165" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43118</v>
       </c>
@@ -24984,8 +27307,23 @@
       <c r="BJ165" s="3">
         <v>-0.215</v>
       </c>
+      <c r="BL165" s="9">
+        <v>43063.687511574077</v>
+      </c>
+      <c r="BM165" s="9">
+        <v>43064.208344907405</v>
+      </c>
+      <c r="BN165" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO165" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP165">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="166" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43125</v>
       </c>
@@ -25143,8 +27481,23 @@
       <c r="BJ166">
         <v>2.1999999999999999E-2</v>
       </c>
+      <c r="BL166" s="9">
+        <v>43067.913194444445</v>
+      </c>
+      <c r="BM166" s="9">
+        <v>43068.114583333336</v>
+      </c>
+      <c r="BN166" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO166" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP166">
+        <v>0.1125</v>
+      </c>
     </row>
-    <row r="167" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43126</v>
       </c>
@@ -25295,8 +27648,23 @@
       <c r="BJ167" s="3">
         <v>-0.20349999999999999</v>
       </c>
+      <c r="BL167" s="9">
+        <v>43068.114699074074</v>
+      </c>
+      <c r="BM167" s="9">
+        <v>43068.139004629629</v>
+      </c>
+      <c r="BN167" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO167" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP167">
+        <v>0.68600000000000005</v>
+      </c>
     </row>
-    <row r="168" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43126</v>
       </c>
@@ -25454,8 +27822,23 @@
       <c r="BJ168" s="3">
         <v>-0.20050000000000001</v>
       </c>
+      <c r="BL168" s="9">
+        <v>43068.142361111109</v>
+      </c>
+      <c r="BM168" s="9">
+        <v>43068.149537037039</v>
+      </c>
+      <c r="BN168" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO168" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP168" s="3">
+        <v>-0.20349999999999999</v>
+      </c>
     </row>
-    <row r="169" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43132</v>
       </c>
@@ -25613,8 +27996,23 @@
       <c r="BJ169">
         <v>0.26600000000000001</v>
       </c>
+      <c r="BL169" s="9">
+        <v>43068.961817129632</v>
+      </c>
+      <c r="BM169" s="9">
+        <v>43069.022812499999</v>
+      </c>
+      <c r="BN169" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO169" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP169" s="3">
+        <v>-0.22500000000000001</v>
+      </c>
     </row>
-    <row r="170" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43133</v>
       </c>
@@ -25772,8 +28170,23 @@
       <c r="BJ170">
         <v>0.35049999999999998</v>
       </c>
+      <c r="BL170" s="9">
+        <v>43069.024328703701</v>
+      </c>
+      <c r="BM170" s="9">
+        <v>43069.029074074075</v>
+      </c>
+      <c r="BN170" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO170" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP170" s="3">
+        <v>-0.20349999999999999</v>
+      </c>
     </row>
-    <row r="171" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43138</v>
       </c>
@@ -25931,8 +28344,23 @@
       <c r="BJ171" s="3">
         <v>-0.21199999999999999</v>
       </c>
+      <c r="BL171" s="9">
+        <v>43069.732673611114</v>
+      </c>
+      <c r="BM171" s="9">
+        <v>43069.791701388887</v>
+      </c>
+      <c r="BN171" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO171" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP171" s="3">
+        <v>-0.20949999999999999</v>
+      </c>
     </row>
-    <row r="172" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43138</v>
       </c>
@@ -26090,8 +28518,23 @@
       <c r="BJ172" s="3">
         <v>-0.20899999999999999</v>
       </c>
+      <c r="BL172" s="9">
+        <v>43070.128518518519</v>
+      </c>
+      <c r="BM172" s="9">
+        <v>43070.734652777777</v>
+      </c>
+      <c r="BN172" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO172" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP172" s="3">
+        <v>-0.2155</v>
+      </c>
     </row>
-    <row r="173" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>43139</v>
       </c>
@@ -26249,8 +28692,23 @@
       <c r="BJ173">
         <v>0.13700000000000001</v>
       </c>
+      <c r="BL173" s="9">
+        <v>43070.76394675926</v>
+      </c>
+      <c r="BM173" s="9">
+        <v>43070.770891203705</v>
+      </c>
+      <c r="BN173" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO173" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP173" s="3">
+        <v>-0.29499999999999998</v>
+      </c>
     </row>
-    <row r="174" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>43140</v>
       </c>
@@ -26408,8 +28866,23 @@
       <c r="BJ174" s="3">
         <v>-0.20549999999999999</v>
       </c>
+      <c r="BL174" s="9">
+        <v>43071.048680555556</v>
+      </c>
+      <c r="BM174" s="9">
+        <v>43071.069513888891</v>
+      </c>
+      <c r="BN174" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO174" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP174">
+        <v>0.53949999999999998</v>
+      </c>
     </row>
-    <row r="175" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>43140</v>
       </c>
@@ -26567,8 +29040,23 @@
       <c r="BJ175" s="3">
         <v>-0.23200000000000001</v>
       </c>
+      <c r="BL175" s="9">
+        <v>43073.673726851855</v>
+      </c>
+      <c r="BM175" s="9">
+        <v>43073.689236111109</v>
+      </c>
+      <c r="BN175" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO175" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP175" s="3">
+        <v>-0.20050000000000001</v>
+      </c>
     </row>
-    <row r="176" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>43141</v>
       </c>
@@ -26726,8 +29214,23 @@
       <c r="BJ176" s="3">
         <v>-0.20399999999999999</v>
       </c>
+      <c r="BL176" s="9">
+        <v>43073.847233796296</v>
+      </c>
+      <c r="BM176" s="9">
+        <v>43074.020844907405</v>
+      </c>
+      <c r="BN176" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO176" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP176" s="3">
+        <v>-2.35E-2</v>
+      </c>
     </row>
-    <row r="177" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>43143</v>
       </c>
@@ -26878,8 +29381,23 @@
       <c r="BJ177">
         <v>0.85650000000000004</v>
       </c>
+      <c r="BL177" s="9">
+        <v>43074.038217592592</v>
+      </c>
+      <c r="BM177" s="9">
+        <v>43074.788217592592</v>
+      </c>
+      <c r="BN177" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO177" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP177">
+        <v>0.80049999999999999</v>
+      </c>
     </row>
-    <row r="178" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>43144</v>
       </c>
@@ -27037,8 +29555,23 @@
       <c r="BJ178" s="3">
         <v>-0.08</v>
       </c>
+      <c r="BL178" s="9">
+        <v>43075.690995370373</v>
+      </c>
+      <c r="BM178" s="9">
+        <v>43075.707199074073</v>
+      </c>
+      <c r="BN178" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO178" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP178" s="3">
+        <v>-0.24199999999999999</v>
+      </c>
     </row>
-    <row r="179" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>43145</v>
       </c>
@@ -27196,8 +29729,23 @@
       <c r="BJ179">
         <v>0.88500000000000001</v>
       </c>
+      <c r="BL179" s="9">
+        <v>43076.875034722223</v>
+      </c>
+      <c r="BM179" s="9">
+        <v>43076.896215277775</v>
+      </c>
+      <c r="BN179" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO179" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP179" s="3">
+        <v>-0.20349999999999999</v>
+      </c>
     </row>
-    <row r="180" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>43146</v>
       </c>
@@ -27355,8 +29903,23 @@
       <c r="BJ180" s="3">
         <v>-0.21049999999999999</v>
       </c>
+      <c r="BL180" s="9">
+        <v>43077.0000462963</v>
+      </c>
+      <c r="BM180" s="9">
+        <v>43077.010810185187</v>
+      </c>
+      <c r="BN180" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO180" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP180" s="3">
+        <v>-0.20849999999999999</v>
+      </c>
     </row>
-    <row r="181" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>43150</v>
       </c>
@@ -27514,8 +30077,23 @@
       <c r="BJ181" s="3">
         <v>-0.20300000000000001</v>
       </c>
+      <c r="BL181" s="9">
+        <v>43077.142418981479</v>
+      </c>
+      <c r="BM181" s="9">
+        <v>43077.659780092596</v>
+      </c>
+      <c r="BN181" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO181" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP181">
+        <v>0.86099999999999999</v>
+      </c>
     </row>
-    <row r="182" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>43151</v>
       </c>
@@ -27673,8 +30251,23 @@
       <c r="BJ182">
         <v>0.28399999999999997</v>
       </c>
+      <c r="BL182" s="9">
+        <v>43080.722222222219</v>
+      </c>
+      <c r="BM182" s="9">
+        <v>43080.831828703704</v>
+      </c>
+      <c r="BN182" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO182" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP182" s="3">
+        <v>-0.20949999999999999</v>
+      </c>
     </row>
-    <row r="183" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>43154</v>
       </c>
@@ -27832,8 +30425,23 @@
       <c r="BJ183">
         <v>8.1500000000000003E-2</v>
       </c>
+      <c r="BL183" s="9">
+        <v>43082.104178240741</v>
+      </c>
+      <c r="BM183" s="9">
+        <v>43082.765057870369</v>
+      </c>
+      <c r="BN183" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO183" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP183" s="3">
+        <v>-0.20499999999999999</v>
+      </c>
     </row>
-    <row r="184" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>43157</v>
       </c>
@@ -27991,8 +30599,23 @@
       <c r="BJ184" s="3">
         <v>-0.20949999999999999</v>
       </c>
+      <c r="BL184" s="9">
+        <v>43089.024421296293</v>
+      </c>
+      <c r="BM184" s="9">
+        <v>43089.052777777775</v>
+      </c>
+      <c r="BN184" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO184" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP184" s="3">
+        <v>-0.28199999999999997</v>
+      </c>
     </row>
-    <row r="185" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>43159</v>
       </c>
@@ -28150,8 +30773,23 @@
       <c r="BJ185">
         <v>0.17699999999999999</v>
       </c>
+      <c r="BL185" s="9">
+        <v>43102.670254629629</v>
+      </c>
+      <c r="BM185" s="9">
+        <v>43102.747916666667</v>
+      </c>
+      <c r="BN185" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO185" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP185" s="3">
+        <v>-0.20699999999999999</v>
+      </c>
     </row>
-    <row r="186" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>43164</v>
       </c>
@@ -28309,8 +30947,23 @@
       <c r="BJ186">
         <v>1.6500000000000001E-2</v>
       </c>
+      <c r="BL186" s="9">
+        <v>43108.93414351852</v>
+      </c>
+      <c r="BM186" s="9">
+        <v>43108.993750000001</v>
+      </c>
+      <c r="BN186" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO186" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP186" s="3">
+        <v>-0.20150000000000001</v>
+      </c>
     </row>
-    <row r="187" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>43168</v>
       </c>
@@ -28468,8 +31121,23 @@
       <c r="BJ187" s="3">
         <v>-0.20250000000000001</v>
       </c>
+      <c r="BL187" s="9">
+        <v>43109.704872685186</v>
+      </c>
+      <c r="BM187" s="9">
+        <v>43110.288206018522</v>
+      </c>
+      <c r="BN187" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO187" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP187">
+        <v>0.16800000000000001</v>
+      </c>
     </row>
-    <row r="188" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>43174</v>
       </c>
@@ -28627,8 +31295,23 @@
       <c r="BJ188" s="3">
         <v>-0.2525</v>
       </c>
+      <c r="BL188" s="9">
+        <v>43110.659733796296</v>
+      </c>
+      <c r="BM188" s="9">
+        <v>43111.42015046296</v>
+      </c>
+      <c r="BN188" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO188" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP188">
+        <v>0.81950000000000001</v>
+      </c>
     </row>
-    <row r="189" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>43178</v>
       </c>
@@ -28786,8 +31469,23 @@
       <c r="BJ189" s="3">
         <v>-0.2145</v>
       </c>
+      <c r="BL189" s="9">
+        <v>43111.975706018522</v>
+      </c>
+      <c r="BM189" s="9">
+        <v>43112.402789351851</v>
+      </c>
+      <c r="BN189" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO189" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP189">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
-    <row r="190" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>43179</v>
       </c>
@@ -28945,8 +31643,23 @@
       <c r="BJ190" s="3">
         <v>-0.20300000000000001</v>
       </c>
+      <c r="BL190" s="9">
+        <v>43112.864594907405</v>
+      </c>
+      <c r="BM190" s="9">
+        <v>43112.98265046296</v>
+      </c>
+      <c r="BN190" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO190" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP190">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="191" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43180</v>
       </c>
@@ -29104,8 +31817,23 @@
       <c r="BJ191" s="3">
         <v>-0.20599999999999999</v>
       </c>
+      <c r="BL191" s="9">
+        <v>43115.632060185184</v>
+      </c>
+      <c r="BM191" s="9">
+        <v>43115.731828703705</v>
+      </c>
+      <c r="BN191" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO191" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP191" s="3">
+        <v>-0.188</v>
+      </c>
     </row>
-    <row r="192" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43182</v>
       </c>
@@ -29256,8 +31984,23 @@
       <c r="BJ192" s="3">
         <v>-0.20399999999999999</v>
       </c>
+      <c r="BL192" s="9">
+        <v>43117.916678240741</v>
+      </c>
+      <c r="BM192" s="9">
+        <v>43117.951053240744</v>
+      </c>
+      <c r="BN192" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO192" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP192" s="3">
+        <v>-0.17699999999999999</v>
+      </c>
     </row>
-    <row r="193" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43185</v>
       </c>
@@ -29406,8 +32149,23 @@
       <c r="BJ193" s="3">
         <v>-0.20549999999999999</v>
       </c>
+      <c r="BL193" s="9">
+        <v>43118.048634259256</v>
+      </c>
+      <c r="BM193" s="9">
+        <v>43118.322939814818</v>
+      </c>
+      <c r="BN193" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO193" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP193">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="194" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I194" s="1">
         <v>43045</v>
       </c>
@@ -29544,8 +32302,23 @@
       <c r="BJ194" s="3">
         <v>-0.20349999999999999</v>
       </c>
+      <c r="BL194" s="9">
+        <v>43123.65289351852</v>
+      </c>
+      <c r="BM194" s="9">
+        <v>43123.685300925928</v>
+      </c>
+      <c r="BN194" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO194" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP194" s="3">
+        <v>-0.17799999999999999</v>
+      </c>
     </row>
-    <row r="195" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I195" s="1">
         <v>43047</v>
       </c>
@@ -29682,8 +32455,23 @@
       <c r="BJ195" s="3">
         <v>-0.20899999999999999</v>
       </c>
+      <c r="BL195" s="9">
+        <v>43126.770844907405</v>
+      </c>
+      <c r="BM195" s="9">
+        <v>43126.770844907405</v>
+      </c>
+      <c r="BN195" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO195" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP195">
+        <v>0</v>
+      </c>
     </row>
-    <row r="196" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I196" s="1">
         <v>43047</v>
       </c>
@@ -29820,8 +32608,23 @@
       <c r="BJ196" s="3">
         <v>-0.20449999999999999</v>
       </c>
+      <c r="BL196" s="9">
+        <v>43126.975706018522</v>
+      </c>
+      <c r="BM196" s="9">
+        <v>43127.121539351851</v>
+      </c>
+      <c r="BN196" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO196" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP196">
+        <v>1.1140000000000001</v>
+      </c>
     </row>
-    <row r="197" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I197" s="1">
         <v>43049</v>
       </c>
@@ -29958,8 +32761,23 @@
       <c r="BJ197">
         <v>0.22800000000000001</v>
       </c>
+      <c r="BL197" s="9">
+        <v>43129.767476851855</v>
+      </c>
+      <c r="BM197" s="9">
+        <v>43130.024305555555</v>
+      </c>
+      <c r="BN197" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO197" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP197">
+        <v>0.185</v>
+      </c>
     </row>
-    <row r="198" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I198" s="1">
         <v>43052</v>
       </c>
@@ -30096,8 +32914,23 @@
       <c r="BJ198" s="3">
         <v>-0.20599999999999999</v>
       </c>
+      <c r="BL198" s="9">
+        <v>43132.038310185184</v>
+      </c>
+      <c r="BM198" s="9">
+        <v>43132.819444444445</v>
+      </c>
+      <c r="BN198" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO198" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP198">
+        <v>1.31</v>
+      </c>
     </row>
-    <row r="199" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I199" s="1">
         <v>43053</v>
       </c>
@@ -30234,8 +33067,23 @@
       <c r="BJ199" s="3">
         <v>-9.00000000001E-3</v>
       </c>
+      <c r="BL199" s="9">
+        <v>43133.642476851855</v>
+      </c>
+      <c r="BM199" s="9">
+        <v>43133.732407407406</v>
+      </c>
+      <c r="BN199" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO199" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP199" s="3">
+        <v>-0.255</v>
+      </c>
     </row>
-    <row r="200" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I200" s="1">
         <v>43053</v>
       </c>
@@ -30372,8 +33220,23 @@
       <c r="BJ200" s="3">
         <v>-0.20100000000000001</v>
       </c>
+      <c r="BL200" s="9">
+        <v>43136.864583333336</v>
+      </c>
+      <c r="BM200" s="9">
+        <v>43137.017361111109</v>
+      </c>
+      <c r="BN200" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO200" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP200" s="3">
+        <v>-8.6499999999999994E-2</v>
+      </c>
     </row>
-    <row r="201" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:68" x14ac:dyDescent="0.2">
       <c r="I201" s="1">
         <v>43053</v>
       </c>
@@ -30510,8 +33373,23 @@
       <c r="BJ201">
         <v>0.14599999999999999</v>
       </c>
+      <c r="BL201" s="9">
+        <v>43138.996539351851</v>
+      </c>
+      <c r="BM201" s="9">
+        <v>43139.020729166667</v>
+      </c>
+      <c r="BN201" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO201" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP201" s="3">
+        <v>-0.183</v>
+      </c>
     </row>
-    <row r="202" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:68" x14ac:dyDescent="0.2">
       <c r="I202" s="1">
         <v>43054</v>
       </c>
@@ -30648,8 +33526,23 @@
       <c r="BJ202" s="3">
         <v>-0.24049999999999999</v>
       </c>
+      <c r="BL202" s="9">
+        <v>43139.878495370373</v>
+      </c>
+      <c r="BM202" s="9">
+        <v>43139.883935185186</v>
+      </c>
+      <c r="BN202" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO202" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP202" s="3">
+        <v>-0.1905</v>
+      </c>
     </row>
-    <row r="203" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I203" s="1">
         <v>43055</v>
       </c>
@@ -30786,8 +33679,23 @@
       <c r="BJ203" s="3">
         <v>-0.245</v>
       </c>
+      <c r="BL203" s="9">
+        <v>43140.052118055559</v>
+      </c>
+      <c r="BM203" s="9">
+        <v>43140.066006944442</v>
+      </c>
+      <c r="BN203" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO203" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP203">
+        <v>0.30249999999999999</v>
+      </c>
     </row>
-    <row r="204" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I204" s="1">
         <v>43055</v>
       </c>
@@ -30924,8 +33832,23 @@
       <c r="BJ204" s="3">
         <v>-0.20449999999999999</v>
       </c>
+      <c r="BL204" s="9">
+        <v>43140.868090277778</v>
+      </c>
+      <c r="BM204" s="9">
+        <v>43140.927118055559</v>
+      </c>
+      <c r="BN204" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO204" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP204">
+        <v>0.3765</v>
+      </c>
     </row>
-    <row r="205" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:68" x14ac:dyDescent="0.2">
       <c r="I205" s="1">
         <v>43056</v>
       </c>
@@ -31062,8 +33985,23 @@
       <c r="BJ205" s="3">
         <v>-0.20399999999999999</v>
       </c>
+      <c r="BL205" s="9">
+        <v>43141.121562499997</v>
+      </c>
+      <c r="BM205" s="9">
+        <v>43141.143900462965</v>
+      </c>
+      <c r="BN205" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO205" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP205" s="3">
+        <v>-0.17499999999999999</v>
+      </c>
     </row>
-    <row r="206" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I206" s="1">
         <v>43059</v>
       </c>
@@ -31200,8 +34138,23 @@
       <c r="BJ206" s="3">
         <v>-0.2</v>
       </c>
+      <c r="BL206" s="9">
+        <v>43143.708449074074</v>
+      </c>
+      <c r="BM206" s="9">
+        <v>43143.725925925923</v>
+      </c>
+      <c r="BN206" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO206" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP206" s="3">
+        <v>-0.17699999999999999</v>
+      </c>
     </row>
-    <row r="207" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:68" x14ac:dyDescent="0.2">
       <c r="I207" s="1">
         <v>43060</v>
       </c>
@@ -31338,8 +34291,23 @@
       <c r="BJ207">
         <v>0.78200000000000003</v>
       </c>
+      <c r="BL207" s="9">
+        <v>43143.739594907405</v>
+      </c>
+      <c r="BM207" s="9">
+        <v>43143.745381944442</v>
+      </c>
+      <c r="BN207" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO207" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP207" s="3">
+        <v>-0.187</v>
+      </c>
     </row>
-    <row r="208" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I208" s="1">
         <v>43062</v>
       </c>
@@ -31476,8 +34444,23 @@
       <c r="BJ208" s="3">
         <v>-0.114</v>
       </c>
+      <c r="BL208" s="9">
+        <v>43144.673634259256</v>
+      </c>
+      <c r="BM208" s="9">
+        <v>43144.770856481482</v>
+      </c>
+      <c r="BN208" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO208" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP208">
+        <v>4.0500000000000001E-2</v>
+      </c>
     </row>
-    <row r="209" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="209" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I209" s="1">
         <v>43064</v>
       </c>
@@ -31614,8 +34597,23 @@
       <c r="BJ209" s="3">
         <v>-0.2145</v>
       </c>
+      <c r="BL209" s="9">
+        <v>43144.927106481482</v>
+      </c>
+      <c r="BM209" s="9">
+        <v>43144.977453703701</v>
+      </c>
+      <c r="BN209" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO209" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP209" s="3">
+        <v>-0.17599999999999999</v>
+      </c>
     </row>
-    <row r="210" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="210" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I210" s="1">
         <v>43068</v>
       </c>
@@ -31752,8 +34750,23 @@
       <c r="BJ210" s="3">
         <v>-0.66649999999999998</v>
       </c>
+      <c r="BL210" s="9">
+        <v>43145.941006944442</v>
+      </c>
+      <c r="BM210" s="9">
+        <v>43145.994710648149</v>
+      </c>
+      <c r="BN210" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO210" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP210" s="3">
+        <v>-0.17499999999999999</v>
+      </c>
     </row>
-    <row r="211" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="211" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I211" s="1">
         <v>43068</v>
       </c>
@@ -31890,8 +34903,23 @@
       <c r="BJ211">
         <v>0.79100000000000004</v>
       </c>
+      <c r="BL211" s="9">
+        <v>43146.006990740738</v>
+      </c>
+      <c r="BM211" s="9">
+        <v>43146.020069444443</v>
+      </c>
+      <c r="BN211" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO211" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP211" s="3">
+        <v>-0.17749999999999999</v>
+      </c>
     </row>
-    <row r="212" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="212" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I212" s="1">
         <v>43069</v>
       </c>
@@ -32028,8 +35056,23 @@
       <c r="BJ212" s="3">
         <v>-0.25700000000000001</v>
       </c>
+      <c r="BL212" s="9">
+        <v>43146.882002314815</v>
+      </c>
+      <c r="BM212" s="9">
+        <v>43146.907349537039</v>
+      </c>
+      <c r="BN212" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO212" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP212" s="3">
+        <v>-0.17699999999999999</v>
+      </c>
     </row>
-    <row r="213" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="213" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I213" s="1">
         <v>43070</v>
       </c>
@@ -32166,8 +35209,23 @@
       <c r="BJ213" s="3">
         <v>-0.20300000000000001</v>
       </c>
+      <c r="BL213" s="9">
+        <v>43150.889004629629</v>
+      </c>
+      <c r="BM213" s="9">
+        <v>43151.395254629628</v>
+      </c>
+      <c r="BN213" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO213" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP213" s="3">
+        <v>-0.17699999999999999</v>
+      </c>
     </row>
-    <row r="214" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="214" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I214" s="1">
         <v>43071</v>
       </c>
@@ -32304,8 +35362,23 @@
       <c r="BJ214" s="3">
         <v>-0.20200000000000001</v>
       </c>
+      <c r="BL214" s="9">
+        <v>43151.784733796296</v>
+      </c>
+      <c r="BM214" s="9">
+        <v>43151.794687499998</v>
+      </c>
+      <c r="BN214" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO214" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP214" s="3">
+        <v>-0.19850000000000001</v>
+      </c>
     </row>
-    <row r="215" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="215" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I215" s="1">
         <v>43071</v>
       </c>
@@ -32442,8 +35515,23 @@
       <c r="BJ215" s="3">
         <v>-0.20200000000000001</v>
       </c>
+      <c r="BL215" s="9">
+        <v>43152.989606481482</v>
+      </c>
+      <c r="BM215" s="9">
+        <v>43153.256157407406</v>
+      </c>
+      <c r="BN215" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO215" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP215" s="3">
+        <v>-0.184</v>
+      </c>
     </row>
-    <row r="216" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="216" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I216" s="1">
         <v>43073</v>
       </c>
@@ -32580,8 +35668,23 @@
       <c r="BJ216" s="3">
         <v>-0.20200000000000001</v>
       </c>
+      <c r="BL216" s="9">
+        <v>43154.881979166668</v>
+      </c>
+      <c r="BM216" s="9">
+        <v>43155.208368055559</v>
+      </c>
+      <c r="BN216" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO216" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP216">
+        <v>0.32350000000000001</v>
+      </c>
     </row>
-    <row r="217" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="217" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I217" s="1">
         <v>43074</v>
       </c>
@@ -32718,8 +35821,23 @@
       <c r="BJ217">
         <v>1.627</v>
       </c>
+      <c r="BL217" s="9">
+        <v>43157.875</v>
+      </c>
+      <c r="BM217" s="9">
+        <v>43157.893518518518</v>
+      </c>
+      <c r="BN217" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO217" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP217" s="3">
+        <v>-0.17799999999999999</v>
+      </c>
     </row>
-    <row r="218" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="218" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I218" s="1">
         <v>43075</v>
       </c>
@@ -32856,8 +35974,23 @@
       <c r="BJ218" s="3">
         <v>-0.20849999999999999</v>
       </c>
+      <c r="BL218" s="9">
+        <v>43159.868067129632</v>
+      </c>
+      <c r="BM218" s="9">
+        <v>43160.520844907405</v>
+      </c>
+      <c r="BN218" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO218" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP218">
+        <v>1.4330000000000001</v>
+      </c>
     </row>
-    <row r="219" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="219" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I219" s="1">
         <v>43076</v>
       </c>
@@ -32994,8 +36127,23 @@
       <c r="BJ219" s="3">
         <v>-0.21099999999999999</v>
       </c>
+      <c r="BL219" s="9">
+        <v>43161.628483796296</v>
+      </c>
+      <c r="BM219" s="9">
+        <v>43162.208344907405</v>
+      </c>
+      <c r="BN219" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO219" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP219">
+        <v>0.316</v>
+      </c>
     </row>
-    <row r="220" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="220" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I220" s="1">
         <v>43076</v>
       </c>
@@ -33132,8 +36280,23 @@
       <c r="BJ220" s="3">
         <v>-0.20100000000000001</v>
       </c>
+      <c r="BL220" s="9">
+        <v>43164.982638888891</v>
+      </c>
+      <c r="BM220" s="9">
+        <v>43165.579861111109</v>
+      </c>
+      <c r="BN220" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO220" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP220">
+        <v>1.0049999999999999</v>
+      </c>
     </row>
-    <row r="221" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="221" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I221" s="1">
         <v>43077</v>
       </c>
@@ -33270,8 +36433,23 @@
       <c r="BJ221" s="3">
         <v>-2.5999999999999999E-2</v>
       </c>
+      <c r="BL221" s="9">
+        <v>43165.861111111109</v>
+      </c>
+      <c r="BM221" s="9">
+        <v>43165.951851851853</v>
+      </c>
+      <c r="BN221" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO221" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP221" s="3">
+        <v>-0.17599999999999999</v>
+      </c>
     </row>
-    <row r="222" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="222" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I222" s="1">
         <v>43077</v>
       </c>
@@ -33408,8 +36586,23 @@
       <c r="BJ222" s="3">
         <v>-0.216</v>
       </c>
+      <c r="BL222" s="9">
+        <v>43166.770844907405</v>
+      </c>
+      <c r="BM222" s="9">
+        <v>43166.801400462966</v>
+      </c>
+      <c r="BN222" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO222" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP222" s="3">
+        <v>-0.185</v>
+      </c>
     </row>
-    <row r="223" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="223" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I223" s="1">
         <v>43083</v>
       </c>
@@ -33546,8 +36739,23 @@
       <c r="BJ223" s="3">
         <v>-0.20300000000000001</v>
       </c>
+      <c r="BL223" s="9">
+        <v>43168.972245370373</v>
+      </c>
+      <c r="BM223" s="9">
+        <v>43168.977685185186</v>
+      </c>
+      <c r="BN223" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO223" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP223" s="3">
+        <v>-0.1825</v>
+      </c>
     </row>
-    <row r="224" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="224" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I224" s="1">
         <v>43085</v>
       </c>
@@ -33684,8 +36892,23 @@
       <c r="BJ224" s="3">
         <v>-0.20449999999999999</v>
       </c>
+      <c r="BL224" s="9">
+        <v>43172.91678240741</v>
+      </c>
+      <c r="BM224" s="9">
+        <v>43173.016898148147</v>
+      </c>
+      <c r="BN224" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO224" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP224" s="3">
+        <v>-0.17299999999999999</v>
+      </c>
     </row>
-    <row r="225" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="225" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I225" s="1">
         <v>43088</v>
       </c>
@@ -33822,8 +37045,23 @@
       <c r="BJ225" s="3">
         <v>-0.20799999999999999</v>
       </c>
+      <c r="BL225" s="9">
+        <v>43174.781261574077</v>
+      </c>
+      <c r="BM225" s="9">
+        <v>43174.787511574075</v>
+      </c>
+      <c r="BN225" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO225" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP225" s="3">
+        <v>-0.17949999999999999</v>
+      </c>
     </row>
-    <row r="226" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="226" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I226" s="1">
         <v>43090</v>
       </c>
@@ -33960,8 +37198,23 @@
       <c r="BJ226" s="3">
         <v>-0.20599999999999999</v>
       </c>
+      <c r="BL226" s="9">
+        <v>43178.795138888891</v>
+      </c>
+      <c r="BM226" s="9">
+        <v>43178.923611111109</v>
+      </c>
+      <c r="BN226" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO226" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP226">
+        <v>0.63400000000000001</v>
+      </c>
     </row>
-    <row r="227" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="227" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I227" s="1">
         <v>43097</v>
       </c>
@@ -34091,8 +37344,23 @@
       <c r="BJ227">
         <v>5.8500000000000003E-2</v>
       </c>
+      <c r="BL227" s="9">
+        <v>43179.656365740739</v>
+      </c>
+      <c r="BM227" s="9">
+        <v>43179.668749999997</v>
+      </c>
+      <c r="BN227" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO227" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP227" s="3">
+        <v>-0.17299999999999999</v>
+      </c>
     </row>
-    <row r="228" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="228" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I228" s="1">
         <v>43102</v>
       </c>
@@ -34229,8 +37497,23 @@
       <c r="BJ228" s="3">
         <v>-0.20749999999999999</v>
       </c>
+      <c r="BL228" s="9">
+        <v>43179.684039351851</v>
+      </c>
+      <c r="BM228" s="9">
+        <v>43179.756608796299</v>
+      </c>
+      <c r="BN228" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO228" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP228" s="3">
+        <v>-0.214</v>
+      </c>
     </row>
-    <row r="229" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="229" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I229" s="1">
         <v>43105</v>
       </c>
@@ -34367,8 +37650,23 @@
       <c r="BJ229" s="3">
         <v>-0.214</v>
       </c>
+      <c r="BL229" s="9">
+        <v>43179.756967592592</v>
+      </c>
+      <c r="BM229" s="9">
+        <v>43180.772013888891</v>
+      </c>
+      <c r="BN229" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO229" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP229" s="3">
+        <v>-0.185</v>
+      </c>
     </row>
-    <row r="230" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="230" spans="9:68" hidden="1" x14ac:dyDescent="0.2">
       <c r="I230" s="1">
         <v>43108</v>
       </c>
@@ -34498,8 +37796,23 @@
       <c r="BJ230" s="3">
         <v>-0.20100000000000001</v>
       </c>
+      <c r="BL230" s="9">
+        <v>43180.864618055559</v>
+      </c>
+      <c r="BM230" s="9">
+        <v>43181.163229166668</v>
+      </c>
+      <c r="BN230" t="s">
+        <v>26</v>
+      </c>
+      <c r="BO230" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP230">
+        <v>0.70799999999999996</v>
+      </c>
     </row>
-    <row r="231" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="231" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I231" s="1">
         <v>43109</v>
       </c>
@@ -34636,8 +37949,23 @@
       <c r="BJ231">
         <v>0.1205</v>
       </c>
+      <c r="BL231" s="9">
+        <v>43182.055590277778</v>
+      </c>
+      <c r="BM231" s="9">
+        <v>43182.217627314814</v>
+      </c>
+      <c r="BN231" t="s">
+        <v>1</v>
+      </c>
+      <c r="BO231" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP231" s="3">
+        <v>-0.19450000000000001</v>
+      </c>
     </row>
-    <row r="232" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="232" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I232" s="1">
         <v>43110</v>
       </c>
@@ -34775,7 +38103,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="233" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="233" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I233" s="1">
         <v>43111</v>
       </c>
@@ -34913,7 +38241,7 @@
         <v>-0.20899999999999999</v>
       </c>
     </row>
-    <row r="234" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="234" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I234" s="1">
         <v>43112</v>
       </c>
@@ -35051,7 +38379,7 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="235" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="235" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I235" s="1">
         <v>43116</v>
       </c>
@@ -35189,7 +38517,7 @@
         <v>-8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="236" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="236" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I236" s="1">
         <v>43117</v>
       </c>
@@ -35320,7 +38648,7 @@
         <v>-0.20300000000000001</v>
       </c>
     </row>
-    <row r="237" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="237" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I237" s="1">
         <v>43118</v>
       </c>
@@ -35458,7 +38786,7 @@
         <v>-0.20300000000000001</v>
       </c>
     </row>
-    <row r="238" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="238" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I238" s="1">
         <v>43122</v>
       </c>
@@ -35596,7 +38924,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="239" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="239" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I239" s="1">
         <v>43123</v>
       </c>
@@ -35734,7 +39062,7 @@
         <v>0.1615</v>
       </c>
     </row>
-    <row r="240" spans="9:62" x14ac:dyDescent="0.2">
+    <row r="240" spans="9:68" x14ac:dyDescent="0.2">
       <c r="I240" s="1">
         <v>43125</v>
       </c>
@@ -62427,7 +65755,16 @@
       <c r="S501" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="BF16:BJ451"/>
+  <autoFilter ref="BL16:BP231">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="volatility_price"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
